--- a/jadwal.xlsx
+++ b/jadwal.xlsx
@@ -7,21 +7,21 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="IF_2" sheetId="2" r:id="rId4"/>
-    <sheet name="IF_4" sheetId="3" r:id="rId6"/>
-    <sheet name="IF_5" sheetId="4" r:id="rId7"/>
-    <sheet name="IF_6" sheetId="5" r:id="rId8"/>
-    <sheet name="IF_7" sheetId="6" r:id="rId9"/>
-    <sheet name="IUP_2" sheetId="7" r:id="rId10"/>
-    <sheet name="IUP_4" sheetId="8" r:id="rId11"/>
-    <sheet name="IUP_6" sheetId="9" r:id="rId12"/>
-    <sheet name="RKA_2" sheetId="10" r:id="rId13"/>
-    <sheet name="RKA_4" sheetId="11" r:id="rId14"/>
-    <sheet name="RKA_5" sheetId="12" r:id="rId15"/>
-    <sheet name="RPL_2" sheetId="13" r:id="rId16"/>
-    <sheet name="RPL_4" sheetId="14" r:id="rId17"/>
-    <sheet name="RPL_5" sheetId="15" r:id="rId18"/>
-    <sheet name="RPL_6" sheetId="16" r:id="rId19"/>
+    <sheet name="IF_Sem_2" sheetId="2" r:id="rId4"/>
+    <sheet name="IF_Sem_4" sheetId="3" r:id="rId6"/>
+    <sheet name="IF_Sem_5" sheetId="4" r:id="rId7"/>
+    <sheet name="IF_Sem_6" sheetId="5" r:id="rId8"/>
+    <sheet name="IF_Sem_7" sheetId="6" r:id="rId9"/>
+    <sheet name="IUP_Sem_2" sheetId="7" r:id="rId10"/>
+    <sheet name="IUP_Sem_4" sheetId="8" r:id="rId11"/>
+    <sheet name="IUP_Sem_6" sheetId="9" r:id="rId12"/>
+    <sheet name="RKA_Sem_2" sheetId="10" r:id="rId13"/>
+    <sheet name="RKA_Sem_4" sheetId="11" r:id="rId14"/>
+    <sheet name="RKA_Sem_5" sheetId="12" r:id="rId15"/>
+    <sheet name="RPL_Sem_2" sheetId="13" r:id="rId16"/>
+    <sheet name="RPL_Sem_4" sheetId="14" r:id="rId17"/>
+    <sheet name="RPL_Sem_5" sheetId="15" r:id="rId18"/>
+    <sheet name="RPL_Sem_6" sheetId="16" r:id="rId19"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>

--- a/jadwal.xlsx
+++ b/jadwal.xlsx
@@ -22,13 +22,15 @@
     <sheet name="RPL_Sem_4" sheetId="14" r:id="rId17"/>
     <sheet name="RPL_Sem_5" sheetId="15" r:id="rId18"/>
     <sheet name="RPL_Sem_6" sheetId="16" r:id="rId19"/>
+    <sheet name="S3_Sem_1" sheetId="17" r:id="rId20"/>
+    <sheet name="S3_Sem_2" sheetId="18" r:id="rId21"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
     <t>Hari</t>
   </si>
@@ -765,6 +767,80 @@
   </si>
   <si>
     <t>BN + MA</t>
+  </si>
+  <si>
+    <t>IF-106 (kapasitas 33) / KHUSUS S3</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>Topik Dalam Pengaman Jaringan B</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Lab Pasca Lantai 1 (IF-110) - A
+(Kapasitas 8)</t>
+  </si>
+  <si>
+    <t>Topik Dalam Data Mining A</t>
+  </si>
+  <si>
+    <t>Topik Dalam Sistem Terdistribusi A</t>
+  </si>
+  <si>
+    <t>Topik Dalam Data Mining C</t>
+  </si>
+  <si>
+    <t>CF, HF</t>
+  </si>
+  <si>
+    <t>Topik Dalam Data Deret Waktu A</t>
+  </si>
+  <si>
+    <t>Topik Dalam Pengaman Jaringan A</t>
+  </si>
+  <si>
+    <t>HS, BJ</t>
+  </si>
+  <si>
+    <t>Topik Dalam Visi Komputer A</t>
+  </si>
+  <si>
+    <t>CF, WN</t>
+  </si>
+  <si>
+    <t>Filsafat Ilmu A</t>
+  </si>
+  <si>
+    <t>Topik Dalam Text Mining A</t>
+  </si>
+  <si>
+    <t>Topik Dalam Tata Kelola Teknologi Informasi T</t>
+  </si>
+  <si>
+    <t>Topik Dalam Rekayasa Sistem Berbasis Pengetahuan T</t>
+  </si>
+  <si>
+    <t>Topik Dalam Data Multivariat</t>
+  </si>
+  <si>
+    <t>Topik Dalam Forensik Digital A</t>
+  </si>
+  <si>
+    <t>Lab Pasca Lantai (IF-110) - B
+(Kapasitas 8)</t>
+  </si>
+  <si>
+    <t>Topik Dalam Data Mining B</t>
+  </si>
+  <si>
+    <t>Penulisan Ilmiah A</t>
+  </si>
+  <si>
+    <t>Metode Penelitian A</t>
   </si>
 </sst>
 </file>
@@ -2053,6 +2129,522 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F10" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" t="s">
+        <v>175</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E14" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" t="s">
+        <v>262</v>
+      </c>
+      <c r="F15" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15" t="s">
+        <v>254</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" t="s">
+        <v>264</v>
+      </c>
+      <c r="F16" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>

--- a/jadwal.xlsx
+++ b/jadwal.xlsx
@@ -22,15 +22,19 @@
     <sheet name="RPL_Sem_4" sheetId="14" r:id="rId17"/>
     <sheet name="RPL_Sem_5" sheetId="15" r:id="rId18"/>
     <sheet name="RPL_Sem_6" sheetId="16" r:id="rId19"/>
-    <sheet name="S3_Sem_1" sheetId="17" r:id="rId20"/>
-    <sheet name="S3_Sem_2" sheetId="18" r:id="rId21"/>
+    <sheet name="S2_Sem_1" sheetId="17" r:id="rId20"/>
+    <sheet name="S2_Sem_2" sheetId="18" r:id="rId21"/>
+    <sheet name="S2_Sem_6" sheetId="19" r:id="rId22"/>
+    <sheet name="S2_Sem_8" sheetId="20" r:id="rId23"/>
+    <sheet name="S3_Sem_1" sheetId="21" r:id="rId24"/>
+    <sheet name="S3_Sem_2" sheetId="22" r:id="rId25"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
   <si>
     <t>Hari</t>
   </si>
@@ -769,6 +773,223 @@
     <t>BN + MA</t>
   </si>
   <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Topik Dalam Audit Sistem A</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>RS, KR</t>
+  </si>
+  <si>
+    <t>Rekayasa Perangkat Lunak A</t>
+  </si>
+  <si>
+    <t>Topik Dalam Sistem Terdistribusi A</t>
+  </si>
+  <si>
+    <t>Topik Dalam Rekayasa Kebutuhan A</t>
+  </si>
+  <si>
+    <t>Topik Dalam Grafika Komputer A</t>
+  </si>
+  <si>
+    <t>AY, WN</t>
+  </si>
+  <si>
+    <t>Lab Pasca Lantai (IF-110) - C
+(Kapasitas 7)</t>
+  </si>
+  <si>
+    <t>Metodologi Penelitian A - Riset</t>
+  </si>
+  <si>
+    <t>16.30 - 18.20</t>
+  </si>
+  <si>
+    <t>Topik Dalam Big Data P</t>
+  </si>
+  <si>
+    <t>18.30 - 20.20</t>
+  </si>
+  <si>
+    <t>Komputasi Berbasis Jaringan P</t>
+  </si>
+  <si>
+    <t>BJ, HS</t>
+  </si>
+  <si>
+    <t>Topik Dalam Visi Komputer P</t>
+  </si>
+  <si>
+    <t>Topik Dalam Grafika Komputer P</t>
+  </si>
+  <si>
+    <t>WN, AY</t>
+  </si>
+  <si>
+    <t>Topik Dalam Visi Komputer A</t>
+  </si>
+  <si>
+    <t>Topik Dalam Penjaminan Kualitas Perangkat Lunak A</t>
+  </si>
+  <si>
+    <t>Topik Dalam Komputasi Biomedik A</t>
+  </si>
+  <si>
+    <t>Kecerdasan Komputasional A</t>
+  </si>
+  <si>
+    <t>Topik Dalam Text Mining A</t>
+  </si>
+  <si>
+    <t>DP, RN</t>
+  </si>
+  <si>
+    <t>Metodologi Penelitian B - Riset</t>
+  </si>
+  <si>
+    <t>Topik Dalam Text Mining P</t>
+  </si>
+  <si>
+    <t>Topik Dalam Penjaminan Kualitas Perangkat Lunak P</t>
+  </si>
+  <si>
+    <t>Kecerdasan Komputasional P</t>
+  </si>
+  <si>
+    <t>Topik Dalam Data Mining P</t>
+  </si>
+  <si>
+    <t>DH, AY, WN</t>
+  </si>
+  <si>
+    <t>Topik Dalam Komputasi Biomedik P</t>
+  </si>
+  <si>
+    <t>Topik Dalam Analisis Data Multivariat A</t>
+  </si>
+  <si>
+    <t>AS, HM</t>
+  </si>
+  <si>
+    <t>Komputasi Berbasis Jaringan A</t>
+  </si>
+  <si>
+    <t>Topik Dalam Data Mining A</t>
+  </si>
+  <si>
+    <t>NS, CF</t>
+  </si>
+  <si>
+    <t>Topik Dalam Keamanan Aplikasi A</t>
+  </si>
+  <si>
+    <t>Literasi Digital, AI, dan Etika Riset P</t>
+  </si>
+  <si>
+    <t>Matrikulasi-Pemrograman Python  P</t>
+  </si>
+  <si>
+    <t>Topik Dalam Analisis Data Multivariat P</t>
+  </si>
+  <si>
+    <t>Topik Dalam Pemodelan dan Simulasi P</t>
+  </si>
+  <si>
+    <t>Rekayasa Perangkat Lunak untuk Pendidikan P</t>
+  </si>
+  <si>
+    <t>Rekayasa Perangkat Lunak untuk Pendidikan</t>
+  </si>
+  <si>
+    <t>Topik Dalam Pemodelan dan Simulasi A</t>
+  </si>
+  <si>
+    <t>Topik Dalam Pengolahan Citra A</t>
+  </si>
+  <si>
+    <t>Topik Dalam Pengaman Jaringan A</t>
+  </si>
+  <si>
+    <t>Topik Dalam Big Data A</t>
+  </si>
+  <si>
+    <t>Topik Dalam Algoritma dan Teknik Optimasi A</t>
+  </si>
+  <si>
+    <t>Topik Dalam Audit Sistem P</t>
+  </si>
+  <si>
+    <t>Rekayasa Perangkat Lunak P</t>
+  </si>
+  <si>
+    <t>Topik Dalam Komputasi Awan P</t>
+  </si>
+  <si>
+    <t>Topik Dalam Pengolahan Citra P</t>
+  </si>
+  <si>
+    <t>WN, DH, SC</t>
+  </si>
+  <si>
+    <t>Topik Dalam Algoritma dan Teknik Optimasi P</t>
+  </si>
+  <si>
+    <t>Topik Dalam Pengembangan Gim dan Realitas X A</t>
+  </si>
+  <si>
+    <t>HF, DH</t>
+  </si>
+  <si>
+    <t>Topik Dalam Jaringan Nirkabel</t>
+  </si>
+  <si>
+    <t>Topik Dalam Komputasi Bergerak P</t>
+  </si>
+  <si>
+    <t>Topik Dalam Pengembangan Gim dan Realitas X P</t>
+  </si>
+  <si>
+    <t>Topik Dalam Rekayasa Kebutuhan P</t>
+  </si>
+  <si>
+    <t>Metodologi Penelitian P</t>
+  </si>
+  <si>
+    <t>DH, AS</t>
+  </si>
+  <si>
+    <t>Metodologi Penelitian A</t>
+  </si>
+  <si>
+    <t>Metodologi Penelitian B</t>
+  </si>
+  <si>
+    <t>DS, BA</t>
+  </si>
+  <si>
+    <t>Metodologi Penelitian Q</t>
+  </si>
+  <si>
+    <t>Game Engine T</t>
+  </si>
+  <si>
+    <t>Aula Prof. Handayani (IF-219)</t>
+  </si>
+  <si>
+    <t>IF, RKA, &amp; IUP_Etika Profesi A</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>AL, RN, NF</t>
+  </si>
+  <si>
     <t>IF-106 (kapasitas 33) / KHUSUS S3</t>
   </si>
   <si>
@@ -776,21 +997,12 @@
   </si>
   <si>
     <t>Topik Dalam Pengaman Jaringan B</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>Lab Pasca Lantai 1 (IF-110) - A
 (Kapasitas 8)</t>
   </si>
   <si>
-    <t>Topik Dalam Data Mining A</t>
-  </si>
-  <si>
-    <t>Topik Dalam Sistem Terdistribusi A</t>
-  </si>
-  <si>
     <t>Topik Dalam Data Mining C</t>
   </si>
   <si>
@@ -800,22 +1012,13 @@
     <t>Topik Dalam Data Deret Waktu A</t>
   </si>
   <si>
-    <t>Topik Dalam Pengaman Jaringan A</t>
-  </si>
-  <si>
     <t>HS, BJ</t>
   </si>
   <si>
-    <t>Topik Dalam Visi Komputer A</t>
-  </si>
-  <si>
     <t>CF, WN</t>
   </si>
   <si>
     <t>Filsafat Ilmu A</t>
-  </si>
-  <si>
-    <t>Topik Dalam Text Mining A</t>
   </si>
   <si>
     <t>Topik Dalam Tata Kelola Teknologi Informasi T</t>
@@ -2170,19 +2373,19 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="s">
         <v>243</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>244</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>245</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>246</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2196,19 +2399,19 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" t="s">
         <v>247</v>
       </c>
-      <c r="D3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" t="s">
-        <v>248</v>
-      </c>
       <c r="F3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2216,25 +2419,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2242,25 +2445,25 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>243</v>
       </c>
-      <c r="D5" t="s">
-        <v>244</v>
-      </c>
       <c r="E5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G5" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2268,25 +2471,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
         <v>243</v>
       </c>
-      <c r="D6" t="s">
-        <v>244</v>
-      </c>
       <c r="E6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -2294,25 +2497,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E7" t="s">
         <v>253</v>
       </c>
       <c r="F7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G7" t="s">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -2320,25 +2523,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>254</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E8" t="s">
         <v>255</v>
       </c>
       <c r="F8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G8" t="s">
-        <v>256</v>
+        <v>181</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -2346,25 +2549,25 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
       <c r="C9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" t="s">
         <v>243</v>
-      </c>
-      <c r="D9" t="s">
-        <v>244</v>
       </c>
       <c r="E9" t="s">
         <v>257</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -2372,25 +2575,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G10" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -2398,25 +2601,25 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
         <v>243</v>
       </c>
-      <c r="D11" t="s">
-        <v>244</v>
-      </c>
       <c r="E11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G11" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -2424,25 +2627,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" t="s">
         <v>245</v>
       </c>
-      <c r="F12" t="s">
-        <v>246</v>
-      </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -2450,25 +2653,25 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
         <v>243</v>
       </c>
-      <c r="D13" t="s">
-        <v>244</v>
-      </c>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G13" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -2476,25 +2679,25 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
         <v>243</v>
       </c>
-      <c r="D14" t="s">
-        <v>244</v>
-      </c>
       <c r="E14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -2502,25 +2705,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G15" t="s">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -2528,27 +2731,833 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" t="s">
+        <v>267</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E17" t="s">
+        <v>268</v>
+      </c>
+      <c r="F17" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" t="s">
+        <v>269</v>
+      </c>
+      <c r="F18" t="s">
+        <v>245</v>
+      </c>
+      <c r="G18" t="s">
+        <v>267</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" t="s">
+        <v>270</v>
+      </c>
+      <c r="F19" t="s">
+        <v>245</v>
+      </c>
+      <c r="G19" t="s">
+        <v>237</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F20" t="s">
+        <v>245</v>
+      </c>
+      <c r="G20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" t="s">
+        <v>245</v>
+      </c>
+      <c r="G21" t="s">
+        <v>273</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>243</v>
+      </c>
+      <c r="E22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F22" t="s">
+        <v>245</v>
+      </c>
+      <c r="G22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" t="s">
+        <v>243</v>
+      </c>
+      <c r="E23" t="s">
+        <v>275</v>
+      </c>
+      <c r="F23" t="s">
+        <v>245</v>
+      </c>
+      <c r="G23" t="s">
+        <v>276</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>243</v>
+      </c>
+      <c r="E24" t="s">
+        <v>277</v>
+      </c>
+      <c r="F24" t="s">
+        <v>245</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>243</v>
+      </c>
+      <c r="E26" t="s">
+        <v>280</v>
+      </c>
+      <c r="F26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" t="s">
+        <v>281</v>
+      </c>
+      <c r="F27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" t="s">
+        <v>282</v>
+      </c>
+      <c r="F28" t="s">
+        <v>245</v>
+      </c>
+      <c r="G28" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>256</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" t="s">
+        <v>283</v>
+      </c>
+      <c r="F29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" t="s">
+        <v>276</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>243</v>
+      </c>
+      <c r="E30" t="s">
+        <v>284</v>
+      </c>
+      <c r="F30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>243</v>
+      </c>
+      <c r="E31" t="s">
+        <v>285</v>
+      </c>
+      <c r="F31" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" t="s">
+        <v>286</v>
+      </c>
+      <c r="F32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" t="s">
+        <v>287</v>
+      </c>
+      <c r="F33" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" t="s">
+        <v>288</v>
+      </c>
+      <c r="F34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G34" t="s">
+        <v>169</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E35" t="s">
+        <v>289</v>
+      </c>
+      <c r="F35" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" t="s">
+        <v>290</v>
+      </c>
+      <c r="F36" t="s">
+        <v>245</v>
+      </c>
+      <c r="G36" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" t="s">
+        <v>291</v>
+      </c>
+      <c r="F37" t="s">
+        <v>245</v>
+      </c>
+      <c r="G37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" t="s">
+        <v>243</v>
+      </c>
+      <c r="E38" t="s">
+        <v>292</v>
+      </c>
+      <c r="F38" t="s">
+        <v>245</v>
+      </c>
+      <c r="G38" t="s">
+        <v>246</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" t="s">
+        <v>243</v>
+      </c>
+      <c r="E39" t="s">
+        <v>293</v>
+      </c>
+      <c r="F39" t="s">
+        <v>245</v>
+      </c>
+      <c r="G39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>243</v>
+      </c>
+      <c r="E40" t="s">
+        <v>294</v>
+      </c>
+      <c r="F40" t="s">
+        <v>245</v>
+      </c>
+      <c r="G40" t="s">
+        <v>198</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>256</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41" t="s">
+        <v>295</v>
+      </c>
+      <c r="F41" t="s">
+        <v>245</v>
+      </c>
+      <c r="G41" t="s">
+        <v>296</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>256</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>243</v>
+      </c>
+      <c r="E42" t="s">
+        <v>297</v>
+      </c>
+      <c r="F42" t="s">
+        <v>245</v>
+      </c>
+      <c r="G42" t="s">
+        <v>143</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
         <v>189</v>
       </c>
-      <c r="C16" t="s">
-        <v>263</v>
-      </c>
-      <c r="D16" t="s">
-        <v>244</v>
-      </c>
-      <c r="E16" t="s">
-        <v>264</v>
-      </c>
-      <c r="F16" t="s">
-        <v>246</v>
-      </c>
-      <c r="G16" t="s">
-        <v>187</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>243</v>
+      </c>
+      <c r="E43" t="s">
+        <v>298</v>
+      </c>
+      <c r="F43" t="s">
+        <v>245</v>
+      </c>
+      <c r="G43" t="s">
+        <v>299</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>243</v>
+      </c>
+      <c r="E44" t="s">
+        <v>300</v>
+      </c>
+      <c r="F44" t="s">
+        <v>245</v>
+      </c>
+      <c r="G44" t="s">
+        <v>147</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>243</v>
+      </c>
+      <c r="E45" t="s">
+        <v>301</v>
+      </c>
+      <c r="F45" t="s">
+        <v>245</v>
+      </c>
+      <c r="G45" t="s">
+        <v>147</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" t="s">
+        <v>243</v>
+      </c>
+      <c r="E46" t="s">
+        <v>302</v>
+      </c>
+      <c r="F46" t="s">
+        <v>245</v>
+      </c>
+      <c r="G46" t="s">
+        <v>299</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="s">
+        <v>256</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>243</v>
+      </c>
+      <c r="E47" t="s">
+        <v>303</v>
+      </c>
+      <c r="F47" t="s">
+        <v>245</v>
+      </c>
+      <c r="G47" t="s">
+        <v>192</v>
+      </c>
+      <c r="H47" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2591,53 +3600,168 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>243</v>
       </c>
-      <c r="D2" t="s">
-        <v>244</v>
-      </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>305</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>243</v>
       </c>
-      <c r="D3" t="s">
-        <v>244</v>
-      </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3280,6 +4404,585 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" t="s">
+        <v>320</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" t="s">
+        <v>324</v>
+      </c>
+      <c r="F9" t="s">
+        <v>245</v>
+      </c>
+      <c r="G9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" t="s">
+        <v>325</v>
+      </c>
+      <c r="F11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" t="s">
+        <v>317</v>
+      </c>
+      <c r="F12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G13" t="s">
+        <v>175</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" t="s">
+        <v>245</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" t="s">
+        <v>316</v>
+      </c>
+      <c r="E15" t="s">
+        <v>328</v>
+      </c>
+      <c r="F15" t="s">
+        <v>245</v>
+      </c>
+      <c r="G15" t="s">
+        <v>322</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F16" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>

--- a/jadwal.xlsx
+++ b/jadwal.xlsx
@@ -18,23 +18,24 @@
     <sheet name="RKA_Sem_2" sheetId="10" r:id="rId13"/>
     <sheet name="RKA_Sem_4" sheetId="11" r:id="rId14"/>
     <sheet name="RKA_Sem_5" sheetId="12" r:id="rId15"/>
-    <sheet name="RPL_Sem_2" sheetId="13" r:id="rId16"/>
-    <sheet name="RPL_Sem_4" sheetId="14" r:id="rId17"/>
-    <sheet name="RPL_Sem_5" sheetId="15" r:id="rId18"/>
-    <sheet name="RPL_Sem_6" sheetId="16" r:id="rId19"/>
-    <sheet name="S2_Sem_1" sheetId="17" r:id="rId20"/>
-    <sheet name="S2_Sem_2" sheetId="18" r:id="rId21"/>
-    <sheet name="S2_Sem_6" sheetId="19" r:id="rId22"/>
-    <sheet name="S2_Sem_8" sheetId="20" r:id="rId23"/>
-    <sheet name="S3_Sem_1" sheetId="21" r:id="rId24"/>
-    <sheet name="S3_Sem_2" sheetId="22" r:id="rId25"/>
+    <sheet name="RKA_Sem_6" sheetId="13" r:id="rId16"/>
+    <sheet name="RPL_Sem_2" sheetId="14" r:id="rId17"/>
+    <sheet name="RPL_Sem_4" sheetId="15" r:id="rId18"/>
+    <sheet name="RPL_Sem_5" sheetId="16" r:id="rId19"/>
+    <sheet name="RPL_Sem_6" sheetId="17" r:id="rId20"/>
+    <sheet name="S2_Sem_1" sheetId="18" r:id="rId21"/>
+    <sheet name="S2_Sem_2" sheetId="19" r:id="rId22"/>
+    <sheet name="S2_Sem_6" sheetId="20" r:id="rId23"/>
+    <sheet name="S2_Sem_8" sheetId="21" r:id="rId24"/>
+    <sheet name="S3_Sem_1" sheetId="22" r:id="rId25"/>
+    <sheet name="S3_Sem_2" sheetId="23" r:id="rId26"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <si>
     <t>Hari</t>
   </si>
@@ -151,6 +152,15 @@
     <t>Komputasi Numerik C</t>
   </si>
   <si>
+    <t>11.00 - 11.50</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>KALKULUS 2</t>
+  </si>
+  <si>
     <t>IF-102 (kapasitas 50)</t>
   </si>
   <si>
@@ -571,9 +581,27 @@
     <t>RS</t>
   </si>
   <si>
+    <t>15.30 - 16.20</t>
+  </si>
+  <si>
+    <t>KEWIRAUSAHAAN BERBASIS TEKNOLOGI</t>
+  </si>
+  <si>
     <t>Simulasi Sistem Dinamis T</t>
   </si>
   <si>
+    <t>BAHASA INGGRIS</t>
+  </si>
+  <si>
+    <t>13.30 - 14.20</t>
+  </si>
+  <si>
+    <t>KEWARGANEGARAAN</t>
+  </si>
+  <si>
+    <t>AGAMA ISLAM</t>
+  </si>
+  <si>
     <t>Desain Pengalaman Pengguna T (EN)</t>
   </si>
   <si>
@@ -592,6 +620,9 @@
     <t>Pengantar Pengembangan Game Z</t>
   </si>
   <si>
+    <t>09.00 - 09.50</t>
+  </si>
+  <si>
     <t>IUP</t>
   </si>
   <si>
@@ -605,6 +636,9 @@
   </si>
   <si>
     <t>DP</t>
+  </si>
+  <si>
+    <t>08.00 - 08.50</t>
   </si>
   <si>
     <t>Sistem Operasi IUP I</t>
@@ -656,9 +690,15 @@
     <t>HF, AY</t>
   </si>
   <si>
+    <t>Kewirausahaan Berbasis Teknologi</t>
+  </si>
+  <si>
     <t>Pemrograman Perangkat Bergerak IUP I</t>
   </si>
   <si>
+    <t>10.00 - 10.50</t>
+  </si>
+  <si>
     <t>RKA</t>
   </si>
   <si>
@@ -771,6 +811,9 @@
   </si>
   <si>
     <t>BN + MA</t>
+  </si>
+  <si>
+    <t>07.00 - 07.50</t>
   </si>
   <si>
     <t>S2</t>
@@ -1386,19 +1429,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1412,19 +1455,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1435,22 +1478,22 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1458,53 +1501,105 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1553,19 +1648,19 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1579,19 +1674,19 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1605,19 +1700,19 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1625,25 +1720,25 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -1651,25 +1746,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -1677,7 +1772,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -1686,16 +1781,16 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -1703,25 +1798,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -1772,19 +1867,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1829,25 +1924,25 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1855,25 +1950,25 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1881,105 +1976,53 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E4" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="G5" t="s">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E6" t="s">
-        <v>229</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2025,22 +2068,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2048,25 +2091,25 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2074,51 +2117,51 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2126,25 +2169,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E6" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -2152,53 +2195,27 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2241,27 +2258,183 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2307,22 +2480,22 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2367,25 +2540,25 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
+        <v>140</v>
       </c>
       <c r="G2" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2393,25 +2566,25 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2419,25 +2592,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s">
-        <v>245</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2445,25 +2618,25 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="F5" t="s">
-        <v>245</v>
+        <v>140</v>
       </c>
       <c r="G5" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2471,1093 +2644,27 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E6" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="F6" t="s">
-        <v>245</v>
+        <v>140</v>
       </c>
       <c r="G6" t="s">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E8" t="s">
-        <v>255</v>
-      </c>
-      <c r="F8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E9" t="s">
-        <v>257</v>
-      </c>
-      <c r="F9" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" t="s">
-        <v>258</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>243</v>
-      </c>
-      <c r="E10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>243</v>
-      </c>
-      <c r="E11" t="s">
-        <v>260</v>
-      </c>
-      <c r="F11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G11" t="s">
-        <v>261</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E12" t="s">
-        <v>262</v>
-      </c>
-      <c r="F12" t="s">
-        <v>245</v>
-      </c>
-      <c r="G12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E13" t="s">
-        <v>263</v>
-      </c>
-      <c r="F13" t="s">
-        <v>245</v>
-      </c>
-      <c r="G13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E14" t="s">
-        <v>264</v>
-      </c>
-      <c r="F14" t="s">
-        <v>245</v>
-      </c>
-      <c r="G14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>243</v>
-      </c>
-      <c r="E15" t="s">
-        <v>265</v>
-      </c>
-      <c r="F15" t="s">
-        <v>245</v>
-      </c>
-      <c r="G15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>243</v>
-      </c>
-      <c r="E16" t="s">
-        <v>266</v>
-      </c>
-      <c r="F16" t="s">
-        <v>245</v>
-      </c>
-      <c r="G16" t="s">
-        <v>267</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>243</v>
-      </c>
-      <c r="E17" t="s">
-        <v>268</v>
-      </c>
-      <c r="F17" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>254</v>
-      </c>
-      <c r="C18" t="s">
-        <v>195</v>
-      </c>
-      <c r="D18" t="s">
-        <v>243</v>
-      </c>
-      <c r="E18" t="s">
-        <v>269</v>
-      </c>
-      <c r="F18" t="s">
-        <v>245</v>
-      </c>
-      <c r="G18" t="s">
-        <v>267</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>254</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>243</v>
-      </c>
-      <c r="E19" t="s">
-        <v>270</v>
-      </c>
-      <c r="F19" t="s">
-        <v>245</v>
-      </c>
-      <c r="G19" t="s">
-        <v>237</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D20" t="s">
-        <v>243</v>
-      </c>
-      <c r="E20" t="s">
-        <v>271</v>
-      </c>
-      <c r="F20" t="s">
-        <v>245</v>
-      </c>
-      <c r="G20" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>256</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>243</v>
-      </c>
-      <c r="E21" t="s">
-        <v>272</v>
-      </c>
-      <c r="F21" t="s">
-        <v>245</v>
-      </c>
-      <c r="G21" t="s">
-        <v>273</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>243</v>
-      </c>
-      <c r="E22" t="s">
-        <v>274</v>
-      </c>
-      <c r="F22" t="s">
-        <v>245</v>
-      </c>
-      <c r="G22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E23" t="s">
-        <v>275</v>
-      </c>
-      <c r="F23" t="s">
-        <v>245</v>
-      </c>
-      <c r="G23" t="s">
-        <v>276</v>
-      </c>
-      <c r="H23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>243</v>
-      </c>
-      <c r="E24" t="s">
-        <v>277</v>
-      </c>
-      <c r="F24" t="s">
-        <v>245</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E25" t="s">
-        <v>278</v>
-      </c>
-      <c r="F25" t="s">
-        <v>245</v>
-      </c>
-      <c r="G25" t="s">
-        <v>279</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>243</v>
-      </c>
-      <c r="E26" t="s">
-        <v>280</v>
-      </c>
-      <c r="F26" t="s">
-        <v>245</v>
-      </c>
-      <c r="G26" t="s">
-        <v>153</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>254</v>
-      </c>
-      <c r="C27" t="s">
-        <v>195</v>
-      </c>
-      <c r="D27" t="s">
-        <v>243</v>
-      </c>
-      <c r="E27" t="s">
-        <v>281</v>
-      </c>
-      <c r="F27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G27" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>256</v>
-      </c>
-      <c r="C28" t="s">
-        <v>195</v>
-      </c>
-      <c r="D28" t="s">
-        <v>243</v>
-      </c>
-      <c r="E28" t="s">
-        <v>282</v>
-      </c>
-      <c r="F28" t="s">
-        <v>245</v>
-      </c>
-      <c r="G28" t="s">
-        <v>143</v>
-      </c>
-      <c r="H28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" t="s">
-        <v>256</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
-        <v>243</v>
-      </c>
-      <c r="E29" t="s">
-        <v>283</v>
-      </c>
-      <c r="F29" t="s">
-        <v>245</v>
-      </c>
-      <c r="G29" t="s">
-        <v>276</v>
-      </c>
-      <c r="H29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>256</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" t="s">
-        <v>243</v>
-      </c>
-      <c r="E30" t="s">
-        <v>284</v>
-      </c>
-      <c r="F30" t="s">
-        <v>245</v>
-      </c>
-      <c r="G30" t="s">
-        <v>113</v>
-      </c>
-      <c r="H30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>256</v>
-      </c>
-      <c r="C31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" t="s">
-        <v>243</v>
-      </c>
-      <c r="E31" t="s">
-        <v>285</v>
-      </c>
-      <c r="F31" t="s">
-        <v>245</v>
-      </c>
-      <c r="G31" t="s">
-        <v>156</v>
-      </c>
-      <c r="H31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" t="s">
-        <v>243</v>
-      </c>
-      <c r="E32" t="s">
-        <v>286</v>
-      </c>
-      <c r="F32" t="s">
-        <v>245</v>
-      </c>
-      <c r="G32" t="s">
-        <v>156</v>
-      </c>
-      <c r="H32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" t="s">
-        <v>243</v>
-      </c>
-      <c r="E33" t="s">
-        <v>287</v>
-      </c>
-      <c r="F33" t="s">
-        <v>245</v>
-      </c>
-      <c r="G33" t="s">
-        <v>113</v>
-      </c>
-      <c r="H33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" t="s">
-        <v>243</v>
-      </c>
-      <c r="E34" t="s">
-        <v>288</v>
-      </c>
-      <c r="F34" t="s">
-        <v>245</v>
-      </c>
-      <c r="G34" t="s">
-        <v>169</v>
-      </c>
-      <c r="H34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" t="s">
-        <v>243</v>
-      </c>
-      <c r="E35" t="s">
-        <v>289</v>
-      </c>
-      <c r="F35" t="s">
-        <v>245</v>
-      </c>
-      <c r="G35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" t="s">
-        <v>243</v>
-      </c>
-      <c r="E36" t="s">
-        <v>290</v>
-      </c>
-      <c r="F36" t="s">
-        <v>245</v>
-      </c>
-      <c r="G36" t="s">
-        <v>125</v>
-      </c>
-      <c r="H36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" t="s">
-        <v>243</v>
-      </c>
-      <c r="E37" t="s">
-        <v>291</v>
-      </c>
-      <c r="F37" t="s">
-        <v>245</v>
-      </c>
-      <c r="G37" t="s">
-        <v>143</v>
-      </c>
-      <c r="H37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" t="s">
-        <v>254</v>
-      </c>
-      <c r="C38" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" t="s">
-        <v>243</v>
-      </c>
-      <c r="E38" t="s">
-        <v>292</v>
-      </c>
-      <c r="F38" t="s">
-        <v>245</v>
-      </c>
-      <c r="G38" t="s">
-        <v>246</v>
-      </c>
-      <c r="H38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" t="s">
-        <v>256</v>
-      </c>
-      <c r="C39" t="s">
-        <v>195</v>
-      </c>
-      <c r="D39" t="s">
-        <v>243</v>
-      </c>
-      <c r="E39" t="s">
-        <v>293</v>
-      </c>
-      <c r="F39" t="s">
-        <v>245</v>
-      </c>
-      <c r="G39" t="s">
-        <v>93</v>
-      </c>
-      <c r="H39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" t="s">
-        <v>256</v>
-      </c>
-      <c r="C40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" t="s">
-        <v>243</v>
-      </c>
-      <c r="E40" t="s">
-        <v>294</v>
-      </c>
-      <c r="F40" t="s">
-        <v>245</v>
-      </c>
-      <c r="G40" t="s">
-        <v>198</v>
-      </c>
-      <c r="H40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" t="s">
-        <v>256</v>
-      </c>
-      <c r="C41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" t="s">
-        <v>243</v>
-      </c>
-      <c r="E41" t="s">
-        <v>295</v>
-      </c>
-      <c r="F41" t="s">
-        <v>245</v>
-      </c>
-      <c r="G41" t="s">
-        <v>296</v>
-      </c>
-      <c r="H41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" t="s">
-        <v>256</v>
-      </c>
-      <c r="C42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" t="s">
-        <v>243</v>
-      </c>
-      <c r="E42" t="s">
-        <v>297</v>
-      </c>
-      <c r="F42" t="s">
-        <v>245</v>
-      </c>
-      <c r="G42" t="s">
-        <v>143</v>
-      </c>
-      <c r="H42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" t="s">
-        <v>189</v>
-      </c>
-      <c r="C43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" t="s">
-        <v>243</v>
-      </c>
-      <c r="E43" t="s">
-        <v>298</v>
-      </c>
-      <c r="F43" t="s">
-        <v>245</v>
-      </c>
-      <c r="G43" t="s">
-        <v>299</v>
-      </c>
-      <c r="H43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" t="s">
-        <v>189</v>
-      </c>
-      <c r="C44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" t="s">
-        <v>243</v>
-      </c>
-      <c r="E44" t="s">
-        <v>300</v>
-      </c>
-      <c r="F44" t="s">
-        <v>245</v>
-      </c>
-      <c r="G44" t="s">
-        <v>147</v>
-      </c>
-      <c r="H44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" t="s">
-        <v>256</v>
-      </c>
-      <c r="C45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" t="s">
-        <v>243</v>
-      </c>
-      <c r="E45" t="s">
-        <v>301</v>
-      </c>
-      <c r="F45" t="s">
-        <v>245</v>
-      </c>
-      <c r="G45" t="s">
-        <v>147</v>
-      </c>
-      <c r="H45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" t="s">
-        <v>256</v>
-      </c>
-      <c r="C46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" t="s">
-        <v>243</v>
-      </c>
-      <c r="E46" t="s">
-        <v>302</v>
-      </c>
-      <c r="F46" t="s">
-        <v>245</v>
-      </c>
-      <c r="G46" t="s">
-        <v>299</v>
-      </c>
-      <c r="H46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" t="s">
-        <v>256</v>
-      </c>
-      <c r="C47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" t="s">
-        <v>243</v>
-      </c>
-      <c r="E47" t="s">
-        <v>303</v>
-      </c>
-      <c r="F47" t="s">
-        <v>245</v>
-      </c>
-      <c r="G47" t="s">
-        <v>192</v>
-      </c>
-      <c r="H47" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3603,22 +2710,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>259</v>
       </c>
       <c r="G2" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3626,25 +2733,25 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>259</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3652,25 +2759,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="E4" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>259</v>
       </c>
       <c r="G4" t="s">
-        <v>308</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -3678,27 +2785,1119 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="E5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" t="s">
+        <v>272</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" t="s">
+        <v>275</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" t="s">
+        <v>259</v>
+      </c>
+      <c r="G13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" t="s">
+        <v>279</v>
+      </c>
+      <c r="F15" t="s">
+        <v>259</v>
+      </c>
+      <c r="G15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" t="s">
+        <v>259</v>
+      </c>
+      <c r="G16" t="s">
+        <v>281</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E17" t="s">
+        <v>282</v>
+      </c>
+      <c r="F17" t="s">
+        <v>259</v>
+      </c>
+      <c r="G17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" t="s">
+        <v>283</v>
+      </c>
+      <c r="F18" t="s">
+        <v>259</v>
+      </c>
+      <c r="G18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>257</v>
+      </c>
+      <c r="E19" t="s">
+        <v>284</v>
+      </c>
+      <c r="F19" t="s">
+        <v>259</v>
+      </c>
+      <c r="G19" t="s">
+        <v>250</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E20" t="s">
+        <v>285</v>
+      </c>
+      <c r="F20" t="s">
+        <v>259</v>
+      </c>
+      <c r="G20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E21" t="s">
+        <v>286</v>
+      </c>
+      <c r="F21" t="s">
+        <v>259</v>
+      </c>
+      <c r="G21" t="s">
+        <v>287</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>257</v>
+      </c>
+      <c r="E22" t="s">
+        <v>288</v>
+      </c>
+      <c r="F22" t="s">
+        <v>259</v>
+      </c>
+      <c r="G22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" t="s">
+        <v>257</v>
+      </c>
+      <c r="E23" t="s">
+        <v>289</v>
+      </c>
+      <c r="F23" t="s">
+        <v>259</v>
+      </c>
+      <c r="G23" t="s">
+        <v>290</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>257</v>
+      </c>
+      <c r="E24" t="s">
+        <v>291</v>
+      </c>
+      <c r="F24" t="s">
+        <v>259</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>257</v>
+      </c>
+      <c r="E25" t="s">
+        <v>292</v>
+      </c>
+      <c r="F25" t="s">
+        <v>259</v>
+      </c>
+      <c r="G25" t="s">
+        <v>293</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>257</v>
+      </c>
+      <c r="E26" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" t="s">
+        <v>259</v>
+      </c>
+      <c r="G26" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" t="s">
+        <v>257</v>
+      </c>
+      <c r="E27" t="s">
+        <v>295</v>
+      </c>
+      <c r="F27" t="s">
+        <v>259</v>
+      </c>
+      <c r="G27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28" t="s">
+        <v>296</v>
+      </c>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>257</v>
+      </c>
+      <c r="E29" t="s">
+        <v>297</v>
+      </c>
+      <c r="F29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" t="s">
+        <v>290</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>257</v>
+      </c>
+      <c r="E30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>270</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>257</v>
+      </c>
+      <c r="E31" t="s">
+        <v>299</v>
+      </c>
+      <c r="F31" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>257</v>
+      </c>
+      <c r="E32" t="s">
+        <v>300</v>
+      </c>
+      <c r="F32" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" t="s">
+        <v>159</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" t="s">
+        <v>301</v>
+      </c>
+      <c r="F33" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>257</v>
+      </c>
+      <c r="E34" t="s">
+        <v>302</v>
+      </c>
+      <c r="F34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" t="s">
+        <v>172</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>257</v>
+      </c>
+      <c r="E35" t="s">
+        <v>303</v>
+      </c>
+      <c r="F35" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>257</v>
+      </c>
+      <c r="E36" t="s">
+        <v>304</v>
+      </c>
+      <c r="F36" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>257</v>
+      </c>
+      <c r="E37" t="s">
+        <v>305</v>
+      </c>
+      <c r="F37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" t="s">
+        <v>257</v>
+      </c>
+      <c r="E38" t="s">
+        <v>306</v>
+      </c>
+      <c r="F38" t="s">
+        <v>259</v>
+      </c>
+      <c r="G38" t="s">
+        <v>260</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>270</v>
+      </c>
+      <c r="C39" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" t="s">
+        <v>257</v>
+      </c>
+      <c r="E39" t="s">
+        <v>307</v>
+      </c>
+      <c r="F39" t="s">
+        <v>259</v>
+      </c>
+      <c r="G39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>257</v>
+      </c>
+      <c r="E40" t="s">
+        <v>308</v>
+      </c>
+      <c r="F40" t="s">
+        <v>259</v>
+      </c>
+      <c r="G40" t="s">
+        <v>209</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>270</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>257</v>
+      </c>
+      <c r="E41" t="s">
         <v>309</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>308</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F41" t="s">
+        <v>259</v>
+      </c>
+      <c r="G41" t="s">
+        <v>310</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>270</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>257</v>
+      </c>
+      <c r="E42" t="s">
+        <v>311</v>
+      </c>
+      <c r="F42" t="s">
+        <v>259</v>
+      </c>
+      <c r="G42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>257</v>
+      </c>
+      <c r="E43" t="s">
+        <v>312</v>
+      </c>
+      <c r="F43" t="s">
+        <v>259</v>
+      </c>
+      <c r="G43" t="s">
+        <v>313</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>257</v>
+      </c>
+      <c r="E44" t="s">
+        <v>314</v>
+      </c>
+      <c r="F44" t="s">
+        <v>259</v>
+      </c>
+      <c r="G44" t="s">
+        <v>150</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>270</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>257</v>
+      </c>
+      <c r="E45" t="s">
+        <v>315</v>
+      </c>
+      <c r="F45" t="s">
+        <v>259</v>
+      </c>
+      <c r="G45" t="s">
+        <v>150</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>270</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" t="s">
+        <v>257</v>
+      </c>
+      <c r="E46" t="s">
+        <v>316</v>
+      </c>
+      <c r="F46" t="s">
+        <v>259</v>
+      </c>
+      <c r="G46" t="s">
+        <v>313</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>270</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>257</v>
+      </c>
+      <c r="E47" t="s">
+        <v>317</v>
+      </c>
+      <c r="F47" t="s">
+        <v>259</v>
+      </c>
+      <c r="G47" t="s">
+        <v>203</v>
+      </c>
+      <c r="H47" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3741,27 +3940,105 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
+        <v>319</v>
       </c>
       <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>322</v>
+      </c>
+      <c r="H5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4015,25 +4292,25 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -4044,22 +4321,22 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -4070,22 +4347,22 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -4096,7 +4373,7 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -4111,18 +4388,18 @@
         <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
         <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -4142,25 +4419,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -4168,39 +4445,39 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -4220,77 +4497,77 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>34</v>
@@ -4298,13 +4575,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -4316,59 +4593,59 @@
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -4376,7 +4653,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -4388,15 +4665,67 @@
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4439,28 +4768,28 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="F2" t="s">
-        <v>313</v>
+        <v>140</v>
       </c>
       <c r="G2" t="s">
-        <v>314</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4502,392 +4831,28 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D2" t="s">
-        <v>316</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
+        <v>327</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>328</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" t="s">
-        <v>245</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E5" t="s">
-        <v>319</v>
-      </c>
-      <c r="F5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" t="s">
-        <v>320</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>315</v>
-      </c>
-      <c r="D6" t="s">
-        <v>316</v>
-      </c>
-      <c r="E6" t="s">
-        <v>321</v>
-      </c>
-      <c r="F6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D7" t="s">
-        <v>316</v>
-      </c>
-      <c r="E7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G8" t="s">
-        <v>323</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D9" t="s">
-        <v>316</v>
-      </c>
-      <c r="E9" t="s">
-        <v>324</v>
-      </c>
-      <c r="F9" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>318</v>
-      </c>
-      <c r="D10" t="s">
-        <v>316</v>
-      </c>
-      <c r="E10" t="s">
-        <v>266</v>
-      </c>
-      <c r="F10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G10" t="s">
-        <v>187</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>315</v>
-      </c>
-      <c r="D11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E11" t="s">
-        <v>325</v>
-      </c>
-      <c r="F11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G11" t="s">
-        <v>175</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>318</v>
-      </c>
-      <c r="D12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E12" t="s">
-        <v>317</v>
-      </c>
-      <c r="F12" t="s">
-        <v>245</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D13" t="s">
-        <v>316</v>
-      </c>
-      <c r="E13" t="s">
-        <v>326</v>
-      </c>
-      <c r="F13" t="s">
-        <v>245</v>
-      </c>
-      <c r="G13" t="s">
-        <v>175</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" t="s">
-        <v>315</v>
-      </c>
-      <c r="D14" t="s">
-        <v>316</v>
-      </c>
-      <c r="E14" t="s">
-        <v>327</v>
-      </c>
-      <c r="F14" t="s">
-        <v>245</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C15" t="s">
-        <v>318</v>
-      </c>
-      <c r="D15" t="s">
-        <v>316</v>
-      </c>
-      <c r="E15" t="s">
-        <v>328</v>
-      </c>
-      <c r="F15" t="s">
-        <v>245</v>
-      </c>
-      <c r="G15" t="s">
-        <v>322</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" t="s">
-        <v>329</v>
-      </c>
-      <c r="D16" t="s">
-        <v>316</v>
-      </c>
-      <c r="E16" t="s">
-        <v>330</v>
-      </c>
-      <c r="F16" t="s">
-        <v>245</v>
-      </c>
-      <c r="G16" t="s">
-        <v>187</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4929,25 +4894,452 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="D2" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="E2" t="s">
         <v>331</v>
       </c>
       <c r="F2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G5" t="s">
+        <v>334</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E9" t="s">
+        <v>338</v>
+      </c>
+      <c r="F9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" t="s">
+        <v>330</v>
+      </c>
+      <c r="E10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" t="s">
+        <v>330</v>
+      </c>
+      <c r="E11" t="s">
+        <v>339</v>
+      </c>
+      <c r="F11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E12" t="s">
+        <v>331</v>
+      </c>
+      <c r="F12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" t="s">
+        <v>340</v>
+      </c>
+      <c r="F13" t="s">
+        <v>259</v>
+      </c>
+      <c r="G13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D14" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" t="s">
+        <v>341</v>
+      </c>
+      <c r="F14" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" t="s">
+        <v>332</v>
+      </c>
+      <c r="D15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E15" t="s">
+        <v>342</v>
+      </c>
+      <c r="F15" t="s">
+        <v>259</v>
+      </c>
+      <c r="G15" t="s">
+        <v>336</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" t="s">
+        <v>330</v>
+      </c>
+      <c r="E16" t="s">
+        <v>344</v>
+      </c>
+      <c r="F16" t="s">
+        <v>259</v>
+      </c>
+      <c r="G16" t="s">
+        <v>197</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -4955,25 +5347,25 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="D3" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="E3" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5030,7 +5422,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -5050,19 +5442,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5076,19 +5468,19 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -5102,19 +5494,19 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -5134,13 +5526,13 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -5154,19 +5546,19 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -5180,19 +5572,19 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -5206,19 +5598,19 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -5238,13 +5630,13 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -5258,19 +5650,19 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -5284,19 +5676,19 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -5310,19 +5702,19 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -5342,7 +5734,7 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
@@ -5362,19 +5754,19 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -5388,19 +5780,19 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -5420,13 +5812,13 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -5440,19 +5832,19 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -5466,19 +5858,19 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -5492,19 +5884,19 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -5518,19 +5910,19 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s">
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -5544,19 +5936,19 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
@@ -5564,25 +5956,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -5590,7 +5982,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -5602,13 +5994,13 @@
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
@@ -5616,25 +6008,25 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F25" t="s">
         <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
@@ -5642,7 +6034,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -5654,7 +6046,7 @@
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
@@ -5668,7 +6060,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
@@ -5680,13 +6072,13 @@
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F27" t="s">
         <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
@@ -5694,25 +6086,25 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -5720,25 +6112,25 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F29" t="s">
         <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
@@ -5746,25 +6138,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F30" t="s">
         <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
@@ -5772,25 +6164,25 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
@@ -5798,25 +6190,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -5824,25 +6216,25 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
@@ -5850,7 +6242,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -5862,13 +6254,13 @@
         <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -5876,25 +6268,25 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F35" t="s">
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -5902,25 +6294,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H36" t="s">
         <v>15</v>
@@ -5928,7 +6320,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
@@ -5940,13 +6332,13 @@
         <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F37" t="s">
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H37" t="s">
         <v>15</v>
@@ -5954,25 +6346,25 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F38" t="s">
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H38" t="s">
         <v>15</v>
@@ -5980,25 +6372,25 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F39" t="s">
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H39" t="s">
         <v>15</v>
@@ -6006,25 +6398,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F40" t="s">
         <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s">
         <v>15</v>
@@ -6032,25 +6424,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F41" t="s">
         <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H41" t="s">
         <v>15</v>
@@ -6058,25 +6450,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F42" t="s">
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H42" t="s">
         <v>15</v>
@@ -6127,19 +6519,19 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -6153,19 +6545,19 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -6216,19 +6608,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -6242,19 +6634,19 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -6268,19 +6660,19 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" t="s">
         <v>140</v>
       </c>
-      <c r="F4" t="s">
-        <v>137</v>
-      </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -6300,13 +6692,13 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -6320,19 +6712,19 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -6346,19 +6738,19 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -6378,13 +6770,13 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -6398,19 +6790,19 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -6424,19 +6816,19 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -6450,19 +6842,19 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -6476,19 +6868,19 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -6502,19 +6894,19 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -6528,19 +6920,19 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -6554,19 +6946,19 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -6574,25 +6966,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -6600,7 +6992,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -6612,13 +7004,13 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -6626,25 +7018,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -6652,7 +7044,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -6664,13 +7056,13 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G19" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -6678,25 +7070,25 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -6704,25 +7096,25 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G21" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -6730,25 +7122,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G22" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
@@ -6756,25 +7148,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F23" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -6782,25 +7174,25 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F24" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
@@ -6808,25 +7200,25 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G25" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
@@ -6834,25 +7226,25 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G26" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
@@ -6860,27 +7252,131 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" t="s">
         <v>25</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H31" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6929,16 +7425,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -6955,19 +7451,19 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -6981,19 +7477,19 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -7041,22 +7537,22 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -7064,51 +7560,51 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="H4" t="s">
         <v>34</v>
@@ -7116,27 +7612,79 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7185,19 +7733,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -7211,19 +7759,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -7237,19 +7785,19 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -7263,19 +7811,19 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -7283,25 +7831,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -7309,25 +7857,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -7335,25 +7883,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -7361,25 +7909,25 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -7433,16 +7981,16 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -7453,24 +8001,154 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
         <v>183</v>
       </c>
-      <c r="E3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
         <v>15</v>
       </c>
     </row>
